--- a/Data/indices_df_d.xlsx
+++ b/Data/indices_df_d.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,16 +526,16 @@
         <v>0.4704429441791537</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.007000000000000006</v>
+        <v>0.001000000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6465448768864177</v>
+        <v>1.015304217991788</v>
       </c>
       <c r="K2" t="n">
-        <v>0.004274298457535716</v>
+        <v>0.007593998888683075</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.4950980392156865</v>
+        <v>-18.75555555555554</v>
       </c>
       <c r="M2" t="n">
         <v>-0.08963188</v>
@@ -567,16 +567,16 @@
         <v>0.4915195569401178</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003399999999999986</v>
+        <v>-0.0005000000000000004</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7463933181473044</v>
+        <v>1.013862148633038</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003835826620636751</v>
+        <v>0.006883365200764805</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.4842105263157905</v>
+        <v>-19.56410256410263</v>
       </c>
       <c r="M3" t="n">
         <v>-0.14823734</v>
@@ -608,16 +608,16 @@
         <v>0.46431030525591</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003400000000000014</v>
+        <v>0.0002999999999999947</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7152542372881355</v>
+        <v>1.014173228346457</v>
       </c>
       <c r="K4" t="n">
-        <v>0.003661087866108747</v>
+        <v>0.007036747458952326</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.4137931034482753</v>
+        <v>-18.99999999999998</v>
       </c>
       <c r="M4" t="n">
         <v>-0.128242536</v>
@@ -649,16 +649,16 @@
         <v>0.4622627409953669</v>
       </c>
       <c r="I5" t="n">
-        <v>0.009000000000000008</v>
+        <v>-0.0007999999999999952</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7629921259842519</v>
+        <v>1.014814814814815</v>
       </c>
       <c r="K5" t="n">
-        <v>0.004214963119072732</v>
+        <v>0.007352941176470654</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.5213270142180101</v>
+        <v>-19.82608695652177</v>
       </c>
       <c r="M5" t="n">
         <v>-0.164784764</v>
@@ -690,16 +690,16 @@
         <v>0.4768348989014488</v>
       </c>
       <c r="I6" t="n">
-        <v>0.005000000000000004</v>
+        <v>-0.0002000000000000057</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7107887579329103</v>
+        <v>1.014705882352941</v>
       </c>
       <c r="K6" t="n">
-        <v>0.003761631360126733</v>
+        <v>0.007299270072992772</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.5000000000000003</v>
+        <v>-18.63636363636369</v>
       </c>
       <c r="M6" t="n">
         <v>-0.3261221479999999</v>
@@ -731,16 +731,16 @@
         <v>0.4640361693382655</v>
       </c>
       <c r="I7" t="n">
-        <v>0.006699999999999998</v>
+        <v>-0.0003999999999999976</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7489754098360656</v>
+        <v>1.014130946773434</v>
       </c>
       <c r="K7" t="n">
-        <v>0.003520300398967382</v>
+        <v>0.007015902712815722</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.5430463576158944</v>
+        <v>-18.32352941176463</v>
       </c>
       <c r="M7" t="n">
         <v>-0.147547864</v>
@@ -772,16 +772,16 @@
         <v>0.4691244239631335</v>
       </c>
       <c r="I8" t="n">
-        <v>0.006199999999999983</v>
+        <v>-0.0004000000000000115</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7290640394088671</v>
+        <v>1.013796909492274</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00384826827927436</v>
+        <v>0.006851192107426698</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.5034013605442178</v>
+        <v>-18.65517241379301</v>
       </c>
       <c r="M8" t="n">
         <v>-0.252348216</v>
@@ -789,1888 +789,1806 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.7879699248120301</v>
+        <v>0.8128834355828221</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6206075044669447</v>
+        <v>0.5740798993394148</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004058694973462365</v>
+        <v>0.001006711409395955</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03341902313624676</v>
+        <v>0.03810683835044376</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2092185812027368</v>
+        <v>0.2466666666666667</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04911838790931991</v>
+        <v>0.06258457374830849</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9727272727272727</v>
+        <v>0.960879405108309</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4993246285457001</v>
+        <v>0.4935744883388862</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0006000000000000102</v>
+        <v>-0.001100000000000018</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7258687258687256</v>
+        <v>1.013856812933025</v>
       </c>
       <c r="K9" t="n">
-        <v>0.002985074626865688</v>
+        <v>0.006880733944954166</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.5066666666666664</v>
+        <v>-18.79999999999999</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.31715896</v>
+        <v>-0.4743594879999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.8128834355828221</v>
+        <v>0.8179410791128765</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5740798993394148</v>
+        <v>0.5949336550060315</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001006711409395955</v>
+        <v>0.007979734008866477</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03810683835044376</v>
+        <v>0.03741363577108592</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2466666666666667</v>
+        <v>0.2281481481481481</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06258457374830849</v>
+        <v>0.05116398055768736</v>
       </c>
       <c r="G10" t="n">
-        <v>0.960879405108309</v>
+        <v>0.9657213316892722</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4935744883388862</v>
+        <v>0.4702934860415175</v>
       </c>
       <c r="I10" t="n">
-        <v>0.007400000000000004</v>
+        <v>-0.001700000000000007</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7641277641277641</v>
+        <v>1.012744265080714</v>
       </c>
       <c r="K10" t="n">
-        <v>0.003165467625899331</v>
+        <v>0.006331785563528921</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.6475409836065564</v>
+        <v>-18.63888888888878</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.4743594879999999</v>
+        <v>-0.649486392</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.8179410791128765</v>
+        <v>1.113783294543574</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5949336550060315</v>
+        <v>0.5533717994951317</v>
       </c>
       <c r="C11" t="n">
-        <v>0.007979734008866477</v>
+        <v>0.01047220106626048</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03741363577108592</v>
+        <v>0.04293996266090199</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2281481481481481</v>
+        <v>0.2573112672863296</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05116398055768736</v>
+        <v>0.05777007510109763</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9657213316892722</v>
+        <v>0.959668508287293</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4702934860415175</v>
+        <v>0.4720471913125083</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01659999999999999</v>
+        <v>-0.001000000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8011152416356877</v>
+        <v>1.014675767918089</v>
       </c>
       <c r="K11" t="n">
-        <v>0.003386960203217592</v>
+        <v>0.007284431644926352</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.6111111111111104</v>
+        <v>-19.33333333333323</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.649486392</v>
+        <v>-0.4088592679999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.113783294543574</v>
+        <v>1.059954751131222</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5533717994951317</v>
+        <v>0.5825039287585123</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01047220106626048</v>
+        <v>0.01420376946189553</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04293996266090199</v>
+        <v>0.04180695847362512</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2573112672863296</v>
+        <v>0.235998705082551</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05777007510109763</v>
+        <v>0.04921205418855407</v>
       </c>
       <c r="G12" t="n">
-        <v>0.959668508287293</v>
+        <v>0.961436170212766</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4720471913125083</v>
+        <v>0.4506503442999235</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01550000000000001</v>
+        <v>0.001000000000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7639450282942601</v>
+        <v>1.015333013895544</v>
       </c>
       <c r="K12" t="n">
-        <v>0.003570821288896431</v>
+        <v>0.007608178792201637</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.5613207547169806</v>
+        <v>-18.21621621621617</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.4088592679999999</v>
+        <v>-0.704644472</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.059954751131222</v>
+        <v>0.8472059398202422</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5825039287585123</v>
+        <v>0.6099476439790574</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01420376946189553</v>
+        <v>0.009605122732123843</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04180695847362512</v>
+        <v>0.03728070175438594</v>
       </c>
       <c r="E13" t="n">
-        <v>0.235998705082551</v>
+        <v>0.2150556635447961</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04921205418855407</v>
+        <v>0.05073800738007385</v>
       </c>
       <c r="G13" t="n">
-        <v>0.961436170212766</v>
+        <v>0.9668639053254436</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4506503442999235</v>
+        <v>0.4798439531859558</v>
       </c>
       <c r="I13" t="n">
-        <v>0.005299999999999999</v>
+        <v>-0.0004000000000000115</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7007963594994313</v>
+        <v>1.013951170901844</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003818615751789953</v>
+        <v>0.006927263730826316</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.4876543209876544</v>
+        <v>-20.03333333333332</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.704644472</v>
+        <v>-0.183400616</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.8472059398202422</v>
+        <v>0.9495861550037623</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6099476439790574</v>
+        <v>0.595231570293231</v>
       </c>
       <c r="C14" t="n">
-        <v>0.009605122732123843</v>
+        <v>0.00704731770458797</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03728070175438594</v>
+        <v>0.03717967708487633</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2150556635447961</v>
+        <v>0.2267608001344764</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05073800738007385</v>
+        <v>0.05128577655092256</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9668639053254436</v>
+        <v>0.9648633575013943</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4798439531859558</v>
+        <v>0.4795417348608837</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001000000000000001</v>
+        <v>-0.000899999999999998</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7166494312306102</v>
+        <v>1.012962073931829</v>
       </c>
       <c r="K14" t="n">
-        <v>0.003228209585299288</v>
+        <v>0.006439303601240115</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.6571428571428573</v>
+        <v>-22.00000000000003</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.183400616</v>
+        <v>-0.293716776</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9495861550037623</v>
+        <v>0.760633270321361</v>
       </c>
       <c r="B15" t="n">
-        <v>0.595231570293231</v>
+        <v>0.6182549844521676</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00704731770458797</v>
+        <v>0.01279638690252169</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03717967708487633</v>
+        <v>0.0340057636887608</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2267608001344764</v>
+        <v>0.2072430164513636</v>
       </c>
       <c r="F15" t="n">
-        <v>0.05128577655092256</v>
+        <v>0.03683960019038549</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9648633575013943</v>
+        <v>0.9733924611973394</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4795417348608837</v>
+        <v>0.4848650122716116</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01240000000000001</v>
+        <v>-0.002400000000000013</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7895277207392198</v>
+        <v>1.013505217925107</v>
       </c>
       <c r="K15" t="n">
-        <v>0.00334928229665068</v>
+        <v>0.006707317073170755</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.5442176870748308</v>
+        <v>-19.2244897959183</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.293716776</v>
+        <v>-0.7025760440000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.760633270321361</v>
+        <v>0.929934096427333</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6182549844521676</v>
+        <v>0.6287982480153298</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01279638690252169</v>
+        <v>0.00415889860892014</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0340057636887608</v>
+        <v>0.03335301062573792</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2072430164513636</v>
+        <v>0.2026337448559671</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03683960019038549</v>
+        <v>0.04958797166401619</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9733924611973394</v>
+        <v>0.9696801112656468</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4848650122716116</v>
+        <v>0.4996898904279513</v>
       </c>
       <c r="I16" t="n">
-        <v>0.007000000000000006</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7571428571428571</v>
+        <v>1.012217194570136</v>
       </c>
       <c r="K16" t="n">
-        <v>0.003517357394096994</v>
+        <v>0.006071508882392642</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.61244019138756</v>
+        <v>-21.03448275862079</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.7025760440000001</v>
+        <v>-1.998790924</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.929934096427333</v>
+        <v>0.889894859813084</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6287982480153298</v>
+        <v>0.6256444743331092</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00415889860892014</v>
+        <v>0.001881025158711486</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03335301062573792</v>
+        <v>0.03459997571931525</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2026337448559671</v>
+        <v>0.2048615800135044</v>
       </c>
       <c r="F17" t="n">
-        <v>0.04958797166401619</v>
+        <v>0.05266903914590747</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9696801112656468</v>
+        <v>0.9699727024567789</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4996898904279513</v>
+        <v>0.5044127630685675</v>
       </c>
       <c r="I17" t="n">
-        <v>0.004299999999999998</v>
+        <v>-0.001100000000000018</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7541268462206777</v>
+        <v>1.013417815877749</v>
       </c>
       <c r="K17" t="n">
-        <v>0.002707581227436838</v>
+        <v>0.006664198445020348</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.5961538461538471</v>
+        <v>-19.23684210526303</v>
       </c>
       <c r="M17" t="n">
-        <v>-1.998790924</v>
+        <v>-0.435059356</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.889894859813084</v>
+        <v>1.053849222177902</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6256444743331092</v>
+        <v>0.6000572573718866</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001881025158711486</v>
+        <v>0.005897474671102397</v>
       </c>
       <c r="D18" t="n">
-        <v>0.03459997571931525</v>
+        <v>0.03710632990333643</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2048615800135044</v>
+        <v>0.2223972003499562</v>
       </c>
       <c r="F18" t="n">
-        <v>0.05266903914590747</v>
+        <v>0.05394696738799144</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9699727024567789</v>
+        <v>0.9680351906158358</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5044127630685675</v>
+        <v>0.4738861649968025</v>
       </c>
       <c r="I18" t="n">
-        <v>0.004299999999999998</v>
+        <v>-9.999999999998899e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7620396600566572</v>
+        <v>1.011940298507463</v>
       </c>
       <c r="K18" t="n">
-        <v>0.003528319405756756</v>
+        <v>0.005934718100890172</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.5721649484536082</v>
+        <v>-19.99999999999998</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.435059356</v>
+        <v>-0.88252928</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.053849222177902</v>
+        <v>1.044195019291476</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6000572573718866</v>
+        <v>0.6030514610809413</v>
       </c>
       <c r="C19" t="n">
-        <v>0.005897474671102397</v>
+        <v>0.01183276360767809</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03710632990333643</v>
+        <v>0.0380361478284327</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2223972003499562</v>
+        <v>0.2137476459510358</v>
       </c>
       <c r="F19" t="n">
-        <v>0.05394696738799144</v>
+        <v>0.03680899477981524</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9680351906158358</v>
+        <v>0.9761843127103288</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4738861649968025</v>
+        <v>0.4463319021840582</v>
       </c>
       <c r="I19" t="n">
-        <v>0.009800000000000003</v>
+        <v>-0.001899999999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>0.765843179377014</v>
+        <v>1.014588859416446</v>
       </c>
       <c r="K19" t="n">
-        <v>0.002728851401637286</v>
+        <v>0.007241606319947328</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.5123456790123456</v>
+        <v>-19.8421052631579</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.88252928</v>
+        <v>-1.065929896</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.044195019291476</v>
+        <v>0.9063745019920318</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6030514610809413</v>
+        <v>0.5977510861231792</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01183276360767809</v>
+        <v>0.00676223965377326</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0380361478284327</v>
+        <v>0.03734671125975472</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2137476459510358</v>
+        <v>0.2218579234972677</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03680899477981524</v>
+        <v>0.05498094719651605</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9761843127103288</v>
+        <v>0.9642391020621248</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4463319021840582</v>
+        <v>0.5268859562733897</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0131</v>
+        <v>-0.0001000000000000167</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7833333333333332</v>
+        <v>1.013644366197183</v>
       </c>
       <c r="K20" t="n">
-        <v>0.003743668795419465</v>
+        <v>0.006775956284152987</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.5868263473053896</v>
+        <v>-22.12499999999994</v>
       </c>
       <c r="M20" t="n">
-        <v>-1.065929896</v>
+        <v>-0.825302772</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9063745019920318</v>
+        <v>0.921726618705036</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5977510861231792</v>
+        <v>0.5956770502225048</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00676223965377326</v>
+        <v>0.005114520791638863</v>
       </c>
       <c r="D21" t="n">
-        <v>0.03734671125975472</v>
+        <v>0.03729202524383251</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2218579234972677</v>
+        <v>0.2257142857142857</v>
       </c>
       <c r="F21" t="n">
-        <v>0.05498094719651605</v>
+        <v>0.05200494215433001</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9642391020621248</v>
+        <v>0.9704103671706262</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5268859562733897</v>
+        <v>0.4865766481334392</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.005899999999999989</v>
+        <v>-0.0002999999999999947</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7216326530612245</v>
+        <v>1.012982195845697</v>
       </c>
       <c r="K21" t="n">
-        <v>0.003290195218249558</v>
+        <v>0.006449235304956704</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.4013605442176858</v>
+        <v>-20.38461538461531</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.825302772</v>
+        <v>-1.569247376</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.921726618705036</v>
+        <v>0.7151710461080812</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5956770502225048</v>
+        <v>0.6334753971328942</v>
       </c>
       <c r="C22" t="n">
-        <v>0.005114520791638863</v>
+        <v>0.01421047401371358</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03729202524383251</v>
+        <v>0.03414733002330525</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2257142857142857</v>
+        <v>0.1926987060998152</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05200494215433001</v>
+        <v>0.03456591639871376</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9704103671706262</v>
+        <v>0.9734530548506735</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4865766481334392</v>
+        <v>0.472508591065292</v>
       </c>
       <c r="I22" t="n">
-        <v>0.006699999999999984</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.7524980784012297</v>
+        <v>1.015061186068403</v>
       </c>
       <c r="K22" t="n">
-        <v>0.003327171903881643</v>
+        <v>0.007474307069448811</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.5075376884422109</v>
+        <v>-20.13999999999998</v>
       </c>
       <c r="M22" t="n">
-        <v>-1.569247376</v>
+        <v>-0.4605699679999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.7151710461080812</v>
+        <v>0.8702196908055329</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6334753971328942</v>
+        <v>0.5832588620792374</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01421047401371358</v>
+        <v>0.003519999999999968</v>
       </c>
       <c r="D23" t="n">
-        <v>0.03414733002330525</v>
+        <v>0.03686559761944121</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1926987060998152</v>
+        <v>0.2380601143278628</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03456591639871376</v>
+        <v>0.06223933269169073</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9734530548506735</v>
+        <v>0.9634408602150537</v>
       </c>
       <c r="H23" t="n">
-        <v>0.472508591065292</v>
+        <v>0.4899752196440641</v>
       </c>
       <c r="I23" t="n">
-        <v>0.003299999999999997</v>
+        <v>-0.0003999999999999976</v>
       </c>
       <c r="J23" t="n">
-        <v>0.7422680412371133</v>
+        <v>1.013933547695606</v>
       </c>
       <c r="K23" t="n">
-        <v>0.003906860446944839</v>
+        <v>0.006918573709419954</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.576923076923078</v>
+        <v>-18.03448275862061</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.4605699679999999</v>
+        <v>-0.6832707159999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.8702196908055329</v>
+        <v>0.7817902420284287</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5832588620792374</v>
+        <v>0.57769703745109</v>
       </c>
       <c r="C24" t="n">
-        <v>0.003519999999999968</v>
+        <v>0.001796407185628794</v>
       </c>
       <c r="D24" t="n">
-        <v>0.03686559761944121</v>
+        <v>0.03864659320192462</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2380601143278628</v>
+        <v>0.2432244614315497</v>
       </c>
       <c r="F24" t="n">
-        <v>0.06223933269169073</v>
+        <v>0.06550218340611351</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9634408602150537</v>
+        <v>0.9587628865979381</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4899752196440641</v>
+        <v>0.4899894625922023</v>
       </c>
       <c r="I24" t="n">
-        <v>0.007800000000000001</v>
+        <v>-0.0003000000000000086</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7641083521444695</v>
+        <v>1.012716174974568</v>
       </c>
       <c r="K24" t="n">
-        <v>0.003471295060080169</v>
+        <v>0.006317917614354314</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.5769230769230775</v>
+        <v>-18.6551724137932</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.6832707159999999</v>
+        <v>-0.8246132959999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.7817902420284287</v>
+        <v>0.9288085577277758</v>
       </c>
       <c r="B25" t="n">
-        <v>0.57769703745109</v>
+        <v>0.5833774483853891</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001796407185628794</v>
+        <v>0.006842619745845497</v>
       </c>
       <c r="D25" t="n">
-        <v>0.03864659320192462</v>
+        <v>0.03875522259040481</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2432244614315497</v>
+        <v>0.2399081063340991</v>
       </c>
       <c r="F25" t="n">
-        <v>0.06550218340611351</v>
+        <v>0.05663567202028742</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9587628865979381</v>
+        <v>0.9633817985998923</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4899894625922023</v>
+        <v>0.4689154736222789</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0116</v>
+        <v>-0.0001999999999999919</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7827027027027028</v>
+        <v>1.013005780346821</v>
       </c>
       <c r="K25" t="n">
-        <v>0.003042596348884398</v>
+        <v>0.006460875807609429</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.5986842105263168</v>
+        <v>-19.1612903225807</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.8246132959999999</v>
+        <v>-0.83771334</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9288085577277758</v>
+        <v>1.049668874172186</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5833774483853891</v>
+        <v>0.6013763896241398</v>
       </c>
       <c r="C26" t="n">
-        <v>0.006842619745845497</v>
+        <v>0.01503964998632753</v>
       </c>
       <c r="D26" t="n">
-        <v>0.03875522259040481</v>
+        <v>0.038466918450133</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2399081063340991</v>
+        <v>0.2192996611263515</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05663567202028742</v>
+        <v>0.04059652029826021</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9633817985998923</v>
+        <v>0.9689922480620156</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4689154736222789</v>
+        <v>0.4576796436180516</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01289999999999999</v>
+        <v>-0.000899999999999998</v>
       </c>
       <c r="J26" t="n">
-        <v>0.7736051502145922</v>
+        <v>1.015242494226328</v>
       </c>
       <c r="K26" t="n">
-        <v>0.003121248499399749</v>
+        <v>0.007563603025441204</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.5555555555555562</v>
+        <v>-21.68750000000013</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.83771334</v>
+        <v>-1.392052044</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.049668874172186</v>
+        <v>0.9531138153185397</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6013763896241398</v>
+        <v>0.5962080450935178</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01503964998632753</v>
+        <v>0.006857603872529237</v>
       </c>
       <c r="D27" t="n">
-        <v>0.038466918450133</v>
+        <v>0.03740648379052373</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2192996611263515</v>
+        <v>0.2258165829145728</v>
       </c>
       <c r="F27" t="n">
-        <v>0.04059652029826021</v>
+        <v>0.05197448771882209</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9689922480620156</v>
+        <v>0.9653103808033384</v>
       </c>
       <c r="H27" t="n">
-        <v>0.4576796436180516</v>
+        <v>0.4659090909090909</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0117</v>
+        <v>-0.001500000000000001</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7716049382716048</v>
+        <v>1.012156686177398</v>
       </c>
       <c r="K27" t="n">
-        <v>0.003452243958573076</v>
+        <v>0.006041620049228033</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.6064516129032261</v>
+        <v>-21.32258064516135</v>
       </c>
       <c r="M27" t="n">
-        <v>-1.392052044</v>
+        <v>-1.145219636</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9531138153185397</v>
+        <v>0.8155802861685215</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5962080450935178</v>
+        <v>0.6238733252131548</v>
       </c>
       <c r="C28" t="n">
-        <v>0.006857603872529237</v>
+        <v>0.009978527219906483</v>
       </c>
       <c r="D28" t="n">
-        <v>0.03740648379052373</v>
+        <v>0.03387638996638221</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2258165829145728</v>
+        <v>0.2025779991211366</v>
       </c>
       <c r="F28" t="n">
-        <v>0.05197448771882209</v>
+        <v>0.04237937196834313</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9653103808033384</v>
+        <v>0.9703996053280711</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4659090909090909</v>
+        <v>0.4717661915930002</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01569999999999999</v>
+        <v>-9.999999999998899e-05</v>
       </c>
       <c r="J28" t="n">
-        <v>0.7970149253731343</v>
+        <v>1.014521984671238</v>
       </c>
       <c r="K28" t="n">
-        <v>0.002918069584736241</v>
+        <v>0.007208650380456532</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.6545454545454533</v>
+        <v>-18.23255813953489</v>
       </c>
       <c r="M28" t="n">
-        <v>-1.145219636</v>
+        <v>-0.690854952</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.8155802861685215</v>
+        <v>0.971844428537342</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6238733252131548</v>
+        <v>0.6218302094818081</v>
       </c>
       <c r="C29" t="n">
-        <v>0.009978527219906483</v>
+        <v>0.01561030656385175</v>
       </c>
       <c r="D29" t="n">
-        <v>0.03387638996638221</v>
+        <v>0.03646833013435704</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2025779991211366</v>
+        <v>0.2046485888212507</v>
       </c>
       <c r="F29" t="n">
-        <v>0.04237937196834313</v>
+        <v>0.03491700057240981</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9703996053280711</v>
+        <v>0.9708935854653318</v>
       </c>
       <c r="H29" t="n">
-        <v>0.4717661915930002</v>
+        <v>0.4695593220338983</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.002099999999999991</v>
+        <v>-0.0007999999999999952</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6902953586497891</v>
+        <v>1.013618074899412</v>
       </c>
       <c r="K29" t="n">
-        <v>0.003817560779586066</v>
+        <v>0.00676298801106673</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.4451219512195119</v>
+        <v>-19.53999999999998</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.690854952</v>
+        <v>-1.714726812</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.971844428537342</v>
+        <v>0.7840236686390532</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6218302094818081</v>
+        <v>0.6536297129994373</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01561030656385175</v>
+        <v>0.01403098509207834</v>
       </c>
       <c r="D30" t="n">
-        <v>0.03646833013435704</v>
+        <v>0.03213329366260043</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2046485888212507</v>
+        <v>0.1801427859870496</v>
       </c>
       <c r="F30" t="n">
-        <v>0.03491700057240981</v>
+        <v>0.03751655141974404</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9708935854653318</v>
+        <v>0.9650529934116298</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4695593220338983</v>
+        <v>0.5045910740978005</v>
       </c>
       <c r="I30" t="n">
-        <v>0.003500000000000003</v>
+        <v>0.001000000000000001</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7301484828921885</v>
+        <v>1.014059753954306</v>
       </c>
       <c r="K30" t="n">
-        <v>0.00339296730413322</v>
+        <v>0.006980802792321134</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.6126126126126127</v>
+        <v>-19.1842105263158</v>
       </c>
       <c r="M30" t="n">
-        <v>-1.714726812</v>
+        <v>-0.478496344</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.7840236686390532</v>
+        <v>0.8499149659863944</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6536297129994373</v>
+        <v>0.561993769470405</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01403098509207834</v>
+        <v>0.004800529713623596</v>
       </c>
       <c r="D31" t="n">
-        <v>0.03213329366260043</v>
+        <v>0.03973963686193902</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1801427859870496</v>
+        <v>0.2551319648093842</v>
       </c>
       <c r="F31" t="n">
-        <v>0.03751655141974404</v>
+        <v>0.05990629183400269</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9650529934116298</v>
+        <v>0.9593339737431955</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5045910740978005</v>
+        <v>0.4827667057444314</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.01659999999999999</v>
+        <v>-0.001399999999999998</v>
       </c>
       <c r="J31" t="n">
-        <v>0.6457654723127035</v>
+        <v>1.012761020881671</v>
       </c>
       <c r="K31" t="n">
-        <v>0.00350262697022765</v>
+        <v>0.00634005763688763</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.453947368421054</v>
+        <v>-19.46153846153832</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.478496344</v>
+        <v>-0.448848876</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.8499149659863944</v>
+        <v>0.9126490409538619</v>
       </c>
       <c r="B32" t="n">
-        <v>0.561993769470405</v>
+        <v>0.6055257099002302</v>
       </c>
       <c r="C32" t="n">
-        <v>0.004800529713623596</v>
+        <v>0.008505467800729059</v>
       </c>
       <c r="D32" t="n">
-        <v>0.03973963686193902</v>
+        <v>0.03459021502025553</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2551319648093842</v>
+        <v>0.2218966123549408</v>
       </c>
       <c r="F32" t="n">
-        <v>0.05990629183400269</v>
+        <v>0.05045778229908442</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9593339737431955</v>
+        <v>0.9633333333333334</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4827667057444314</v>
+        <v>0.4873864783047428</v>
       </c>
       <c r="I32" t="n">
-        <v>0.009400000000000019</v>
+        <v>-0.001200000000000007</v>
       </c>
       <c r="J32" t="n">
-        <v>0.7704280155642024</v>
+        <v>1.013026052104208</v>
       </c>
       <c r="K32" t="n">
-        <v>0.003180109858340532</v>
+        <v>0.00647088103534099</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.5187969924812019</v>
+        <v>-18.29545454545448</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.448848876</v>
+        <v>-2.166333592</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9126490409538619</v>
+        <v>0.8418290854572713</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6055257099002302</v>
+        <v>0.5857659160411454</v>
       </c>
       <c r="C33" t="n">
-        <v>0.008505467800729059</v>
+        <v>0.009509875640087711</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03459021502025553</v>
+        <v>0.03775003759963898</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2218966123549408</v>
+        <v>0.2337506431143887</v>
       </c>
       <c r="F33" t="n">
-        <v>0.05045778229908442</v>
+        <v>0.05084745762711861</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9633333333333334</v>
+        <v>0.9659477866061293</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4873864783047428</v>
+        <v>0.4761707418151678</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0113</v>
+        <v>-0.0001000000000000029</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7768707482993198</v>
+        <v>1.012487512487513</v>
       </c>
       <c r="K33" t="n">
-        <v>0.003328894806924104</v>
+        <v>0.006205013651030038</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.5829145728643216</v>
+        <v>-21.31034482758631</v>
       </c>
       <c r="M33" t="n">
-        <v>-2.166333592</v>
+        <v>-2.5338243</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.8418290854572713</v>
+        <v>1.125230688109676</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5857659160411454</v>
+        <v>0.5567357054345902</v>
       </c>
       <c r="C34" t="n">
-        <v>0.009509875640087711</v>
+        <v>0.01152440738311625</v>
       </c>
       <c r="D34" t="n">
-        <v>0.03775003759963898</v>
+        <v>0.04369682907965967</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2337506431143887</v>
+        <v>0.2532445923460899</v>
       </c>
       <c r="F34" t="n">
-        <v>0.05084745762711861</v>
+        <v>0.05830104885193237</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9659477866061293</v>
+        <v>0.9583785740137531</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4761707418151678</v>
+        <v>0.4652868745087766</v>
       </c>
       <c r="I34" t="n">
-        <v>0.006099999999999994</v>
+        <v>-0.001000000000000001</v>
       </c>
       <c r="J34" t="n">
-        <v>0.7407809110629067</v>
+        <v>1.015105740181269</v>
       </c>
       <c r="K34" t="n">
-        <v>0.003732271709380446</v>
+        <v>0.007496251874062975</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.5248226950354618</v>
+        <v>-17.83928571428574</v>
       </c>
       <c r="M34" t="n">
-        <v>-2.5338243</v>
+        <v>-0.5708861279999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.125230688109676</v>
+        <v>0.7116267210606833</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5567357054345902</v>
+        <v>0.5965723088773349</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01152440738311625</v>
+        <v>0.009150326797385618</v>
       </c>
       <c r="D35" t="n">
-        <v>0.04369682907965967</v>
+        <v>0.03817109754836045</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2532445923460899</v>
+        <v>0.2236098020735155</v>
       </c>
       <c r="F35" t="n">
-        <v>0.05830104885193237</v>
+        <v>0.04945054945054948</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9583785740137531</v>
+        <v>0.9654229341668293</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4652868745087766</v>
+        <v>0.5091414363024718</v>
       </c>
       <c r="I35" t="n">
-        <v>0.008399999999999991</v>
+        <v>0.0004000000000000115</v>
       </c>
       <c r="J35" t="n">
-        <v>0.6993569131832797</v>
+        <v>1.014028056112224</v>
       </c>
       <c r="K35" t="n">
-        <v>0.003678929765886254</v>
+        <v>0.006965174129353204</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.5508474576271177</v>
+        <v>-18.69999999999999</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.5708861279999999</v>
+        <v>-1.217614616</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.7116267210606833</v>
+        <v>0.899283031751451</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5965723088773349</v>
+        <v>0.630642249161723</v>
       </c>
       <c r="C36" t="n">
-        <v>0.009150326797385618</v>
+        <v>0.01090135602233432</v>
       </c>
       <c r="D36" t="n">
-        <v>0.03817109754836045</v>
+        <v>0.03526208304969364</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2236098020735155</v>
+        <v>0.1999380996595481</v>
       </c>
       <c r="F36" t="n">
-        <v>0.04945054945054948</v>
+        <v>0.03909409544351581</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9654229341668293</v>
+        <v>0.9733820459290188</v>
       </c>
       <c r="H36" t="n">
-        <v>0.5091414363024718</v>
+        <v>0.4661339421613395</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.0058</v>
+        <v>0.0007000000000000062</v>
       </c>
       <c r="J36" t="n">
-        <v>0.70059093893631</v>
+        <v>1.013681060282172</v>
       </c>
       <c r="K36" t="n">
-        <v>0.003494757863205177</v>
+        <v>0.006794055201698532</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.5388601036269445</v>
+        <v>-20.0555555555556</v>
       </c>
       <c r="M36" t="n">
-        <v>-1.217614616</v>
+        <v>-0.3502538079999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.899283031751451</v>
+        <v>1.144027303754266</v>
       </c>
       <c r="B37" t="n">
-        <v>0.630642249161723</v>
+        <v>0.5973292244478685</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01090135602233432</v>
+        <v>0.01268213707501337</v>
       </c>
       <c r="D37" t="n">
-        <v>0.03526208304969364</v>
+        <v>0.03659715508907613</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1999380996595481</v>
+        <v>0.226649866120649</v>
       </c>
       <c r="F37" t="n">
-        <v>0.03909409544351581</v>
+        <v>0.04820095044127636</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9733820459290188</v>
+        <v>0.9647058823529412</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4661339421613395</v>
+        <v>0.4672240167205016</v>
       </c>
       <c r="I37" t="n">
-        <v>0.004299999999999998</v>
+        <v>-0.002700000000000008</v>
       </c>
       <c r="J37" t="n">
-        <v>0.7266187050359713</v>
+        <v>1.013422818791946</v>
       </c>
       <c r="K37" t="n">
-        <v>0.003196249733645858</v>
+        <v>0.006666666666666672</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.4916201117318433</v>
+        <v>-20.49999999999994</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.3502538079999999</v>
+        <v>-2.391792244</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.144027303754266</v>
+        <v>1.190889370932755</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5973292244478685</v>
+        <v>0.5810260586319218</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01268213707501337</v>
+        <v>0.008927611057330294</v>
       </c>
       <c r="D38" t="n">
-        <v>0.03659715508907613</v>
+        <v>0.03829975647553682</v>
       </c>
       <c r="E38" t="n">
-        <v>0.226649866120649</v>
+        <v>0.2377472596699005</v>
       </c>
       <c r="F38" t="n">
-        <v>0.04820095044127636</v>
+        <v>0.05447850102891803</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9647058823529412</v>
+        <v>0.9646789943901932</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4672240167205016</v>
+        <v>0.4902681992337165</v>
       </c>
       <c r="I38" t="n">
-        <v>0.01640000000000001</v>
+        <v>-0.002600000000000019</v>
       </c>
       <c r="J38" t="n">
-        <v>0.8113772455089822</v>
+        <v>1.013067150635209</v>
       </c>
       <c r="K38" t="n">
-        <v>0.003344481605351174</v>
+        <v>0.006491164803461941</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.6000000000000002</v>
+        <v>-20.99999999999985</v>
       </c>
       <c r="M38" t="n">
-        <v>-2.391792244</v>
+        <v>-0.48608058</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.190889370932755</v>
+        <v>0.8526113425184236</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5810260586319218</v>
+        <v>0.6268953517275665</v>
       </c>
       <c r="C39" t="n">
-        <v>0.008927611057330294</v>
+        <v>0.011731701096659</v>
       </c>
       <c r="D39" t="n">
-        <v>0.03829975647553682</v>
+        <v>0.03415015641293014</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2377472596699005</v>
+        <v>0.1973214285714286</v>
       </c>
       <c r="F39" t="n">
-        <v>0.05447850102891803</v>
+        <v>0.03611039463502712</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9646789943901932</v>
+        <v>0.9724448897795591</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4902681992337165</v>
+        <v>0.482274741506647</v>
       </c>
       <c r="I39" t="n">
-        <v>0.01919999999999999</v>
+        <v>-0.001299999999999996</v>
       </c>
       <c r="J39" t="n">
-        <v>0.8268199233716474</v>
+        <v>1.013894564773192</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0030758096616609</v>
+        <v>0.006899350649350621</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.5721649484536082</v>
+        <v>-20.50000000000001</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.48608058</v>
+        <v>-1.034214</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.8526113425184236</v>
+        <v>0.7417691392304641</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6268953517275665</v>
+        <v>0.6467356173238527</v>
       </c>
       <c r="C40" t="n">
-        <v>0.011731701096659</v>
+        <v>0.006175930562510401</v>
       </c>
       <c r="D40" t="n">
-        <v>0.03415015641293014</v>
+        <v>0.0288445127154805</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1973214285714286</v>
+        <v>0.193903144896778</v>
       </c>
       <c r="F40" t="n">
-        <v>0.03611039463502712</v>
+        <v>0.03773584905660373</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9724448897795591</v>
+        <v>0.9770942408376964</v>
       </c>
       <c r="H40" t="n">
-        <v>0.482274741506647</v>
+        <v>0.4792017311853811</v>
       </c>
       <c r="I40" t="n">
-        <v>0.002200000000000008</v>
+        <v>-0.002499999999999988</v>
       </c>
       <c r="J40" t="n">
-        <v>0.7345424567188787</v>
+        <v>1.009331259720062</v>
       </c>
       <c r="K40" t="n">
-        <v>0.003055612140965576</v>
+        <v>0.004643962848297275</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.6588235294117639</v>
+        <v>-24.70588235294108</v>
       </c>
       <c r="M40" t="n">
-        <v>-1.034214</v>
+        <v>-3.2405372</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.7417691392304641</v>
+        <v>0.6742957746478873</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6467356173238527</v>
+        <v>0.6330611095466065</v>
       </c>
       <c r="C41" t="n">
-        <v>0.006175930562510401</v>
+        <v>0.007690032534753005</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0288445127154805</v>
+        <v>0.03273719308881481</v>
       </c>
       <c r="E41" t="n">
-        <v>0.193903144896778</v>
+        <v>0.198245318036106</v>
       </c>
       <c r="F41" t="n">
-        <v>0.03773584905660373</v>
+        <v>0.04744905548118405</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9770942408376964</v>
+        <v>0.9741527857553131</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4792017311853811</v>
+        <v>0.4926767140734452</v>
       </c>
       <c r="I41" t="n">
-        <v>0.03030000000000001</v>
+        <v>0.0003999999999999837</v>
       </c>
       <c r="J41" t="n">
-        <v>1.004115226337448</v>
+        <v>1.014220183486239</v>
       </c>
       <c r="K41" t="n">
-        <v>0.002069322296947809</v>
+        <v>0.007059895240264158</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.7433628318584081</v>
+        <v>-20.71874999999995</v>
       </c>
       <c r="M41" t="n">
-        <v>-3.2405372</v>
+        <v>-0.15168472</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.6742957746478873</v>
+        <v>0.9344436569808646</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6330611095466065</v>
+        <v>0.6036036036036035</v>
       </c>
       <c r="C42" t="n">
-        <v>0.007690032534753005</v>
+        <v>0.008331093791991378</v>
       </c>
       <c r="D42" t="n">
-        <v>0.03273719308881481</v>
+        <v>0.03775411423039689</v>
       </c>
       <c r="E42" t="n">
-        <v>0.198245318036106</v>
+        <v>0.2205466540999058</v>
       </c>
       <c r="F42" t="n">
-        <v>0.04744905548118405</v>
+        <v>0.04836956521739126</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9741527857553131</v>
+        <v>0.9701414353064433</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4926767140734452</v>
+        <v>0.4682675814751287</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.00470000000000001</v>
+        <v>0.0006000000000000033</v>
       </c>
       <c r="J42" t="n">
-        <v>0.684068406840684</v>
+        <v>1.01386404293381</v>
       </c>
       <c r="K42" t="n">
-        <v>0.003656307129798881</v>
+        <v>0.006884299355984941</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.4329268292682912</v>
+        <v>-19.05555555555545</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.15168472</v>
+        <v>-0.64121268</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9344436569808646</v>
+        <v>0.8994861913937059</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6036036036036035</v>
+        <v>0.5935891436593355</v>
       </c>
       <c r="C43" t="n">
-        <v>0.008331093791991378</v>
+        <v>0.008215818516247749</v>
       </c>
       <c r="D43" t="n">
-        <v>0.03775411423039689</v>
+        <v>0.03734544536966946</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2205466540999058</v>
+        <v>0.2297511149474896</v>
       </c>
       <c r="F43" t="n">
-        <v>0.04836956521739126</v>
+        <v>0.04897353450408109</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9701414353064433</v>
+        <v>0.9694656488549618</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4682675814751287</v>
+        <v>0.4812095787449747</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0034</v>
+        <v>0.0003999999999999837</v>
       </c>
       <c r="J43" t="n">
-        <v>0.7109375</v>
+        <v>1.014225941422594</v>
       </c>
       <c r="K43" t="n">
-        <v>0.003565062388591841</v>
+        <v>0.007062733693394296</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.5060240963855411</v>
+        <v>-17.07499999999999</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.64121268</v>
+        <v>-0.61363364</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.8994861913937059</v>
+        <v>0.844548927416985</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5935891436593355</v>
+        <v>0.6009615384615385</v>
       </c>
       <c r="C44" t="n">
-        <v>0.008215818516247749</v>
+        <v>0.0004611482591653349</v>
       </c>
       <c r="D44" t="n">
-        <v>0.03734544536966946</v>
+        <v>0.03593171779873465</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2297511149474896</v>
+        <v>0.2251673360107095</v>
       </c>
       <c r="F44" t="n">
-        <v>0.04897353450408109</v>
+        <v>0.05611175785797441</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9694656488549618</v>
+        <v>0.9669790272199911</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4812095787449747</v>
+        <v>0.49760370186746</v>
       </c>
       <c r="I44" t="n">
-        <v>0.003700000000000009</v>
+        <v>-0.001000000000000001</v>
       </c>
       <c r="J44" t="n">
-        <v>0.7287093942054435</v>
+        <v>1.013384321223709</v>
       </c>
       <c r="K44" t="n">
-        <v>0.003543881592662095</v>
+        <v>0.006647673314339987</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.4825581395348828</v>
+        <v>-19.44736842105264</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.61363364</v>
+        <v>-0.28957992</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.844548927416985</v>
+        <v>0.7383115444272103</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6009615384615385</v>
+        <v>0.7412784835652348</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0004611482591653349</v>
+        <v>0.002347657446156955</v>
       </c>
       <c r="D45" t="n">
-        <v>0.03593171779873465</v>
+        <v>0.02068392059037519</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2251673360107095</v>
+        <v>0.1359523536822816</v>
       </c>
       <c r="F45" t="n">
-        <v>0.05611175785797441</v>
+        <v>0.02690999072069287</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9669790272199911</v>
+        <v>0.9885519180558345</v>
       </c>
       <c r="H45" t="n">
-        <v>0.49760370186746</v>
+        <v>0.5316728167281672</v>
       </c>
       <c r="I45" t="n">
-        <v>0.002400000000000013</v>
+        <v>-0.007000000000000006</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7107061503416855</v>
+        <v>1.003098591549296</v>
       </c>
       <c r="K45" t="n">
-        <v>0.003239946636173012</v>
+        <v>0.0015468991702996</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.517766497461928</v>
+        <v>-25.62500000000196</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.28957992</v>
+        <v>-5.93638836</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.7383115444272103</v>
+        <v>0.8336170212765958</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7412784835652348</v>
+        <v>0.614105123087159</v>
       </c>
       <c r="C46" t="n">
-        <v>0.002347657446156955</v>
+        <v>0.006944444444444451</v>
       </c>
       <c r="D46" t="n">
-        <v>0.02068392059037519</v>
+        <v>0.03589926772637973</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1359523536822816</v>
+        <v>0.2157735085945399</v>
       </c>
       <c r="F46" t="n">
-        <v>0.02690999072069287</v>
+        <v>0.04828797190517993</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9885519180558345</v>
+        <v>0.9729821006416752</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5316728167281672</v>
+        <v>0.4843205574912892</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0711</v>
+        <v>-0.002000000000000002</v>
       </c>
       <c r="J46" t="n">
-        <v>1.116959064327485</v>
+        <v>1.010752688172043</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0005630630630630792</v>
+        <v>0.005347593582887737</v>
       </c>
       <c r="L46" t="n">
-        <v>-1.017341040462426</v>
+        <v>-21.8095238095239</v>
       </c>
       <c r="M46" t="n">
-        <v>-5.93638836</v>
+        <v>-2.757904</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.8336170212765958</v>
+        <v>0.658734309623431</v>
       </c>
       <c r="B47" t="n">
-        <v>0.614105123087159</v>
+        <v>0.7404653394099304</v>
       </c>
       <c r="C47" t="n">
-        <v>0.006944444444444451</v>
+        <v>0.004538206795044746</v>
       </c>
       <c r="D47" t="n">
-        <v>0.03589926772637973</v>
+        <v>0.0204335908298031</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2157735085945399</v>
+        <v>0.1359673024523161</v>
       </c>
       <c r="F47" t="n">
-        <v>0.04828797190517993</v>
+        <v>0.02912861021969885</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9729821006416752</v>
+        <v>0.9858036573628488</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4843205574912892</v>
+        <v>0.5288073394495413</v>
       </c>
       <c r="I47" t="n">
-        <v>0.01440000000000001</v>
+        <v>-0.002200000000000008</v>
       </c>
       <c r="J47" t="n">
-        <v>0.8578034682080924</v>
+        <v>1.005721979131606</v>
       </c>
       <c r="K47" t="n">
-        <v>0.002540220152413243</v>
+        <v>0.002852827655646979</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.661157024793389</v>
+        <v>-23.63157894736896</v>
       </c>
       <c r="M47" t="n">
-        <v>-2.757904</v>
+        <v>-0.4481594</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.658734309623431</v>
+        <v>0.8400556328233657</v>
       </c>
       <c r="B48" t="n">
-        <v>0.7404653394099304</v>
+        <v>0.6592039800995024</v>
       </c>
       <c r="C48" t="n">
-        <v>0.004538206795044746</v>
+        <v>0.002461271174171181</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0204335908298031</v>
+        <v>0.02684265163873648</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1359673024523161</v>
+        <v>0.1840942562592048</v>
       </c>
       <c r="F48" t="n">
-        <v>0.02912861021969885</v>
+        <v>0.04479348458406049</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9858036573628488</v>
+        <v>0.9741355074500982</v>
       </c>
       <c r="H48" t="n">
-        <v>0.5288073394495413</v>
+        <v>0.5088309503784694</v>
       </c>
       <c r="I48" t="n">
-        <v>0.03639999999999999</v>
+        <v>-0.002700000000000008</v>
       </c>
       <c r="J48" t="n">
-        <v>0.9788503253796095</v>
+        <v>1.007772020725389</v>
       </c>
       <c r="K48" t="n">
-        <v>0.001680107526881722</v>
+        <v>0.003870967741935476</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.6287425149700581</v>
+        <v>-21.24999999999988</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.4481594</v>
+        <v>-4.1713298</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.8400556328233657</v>
+        <v>0.7098914354644149</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6592039800995024</v>
+        <v>0.682233502538071</v>
       </c>
       <c r="C49" t="n">
-        <v>0.002461271174171181</v>
+        <v>0.004928664072632977</v>
       </c>
       <c r="D49" t="n">
-        <v>0.02684265163873648</v>
+        <v>0.02459666754826766</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1840942562592048</v>
+        <v>0.1696600860917322</v>
       </c>
       <c r="F49" t="n">
-        <v>0.04479348458406049</v>
+        <v>0.0303744435716156</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9741355074500982</v>
+        <v>0.9854443309499492</v>
       </c>
       <c r="H49" t="n">
-        <v>0.5088309503784694</v>
+        <v>0.4829341881953611</v>
       </c>
       <c r="I49" t="n">
-        <v>0.02050000000000002</v>
+        <v>-0.005400000000000016</v>
       </c>
       <c r="J49" t="n">
-        <v>0.8922955974842767</v>
+        <v>1.008058326937836</v>
       </c>
       <c r="K49" t="n">
-        <v>0.001939237233354906</v>
+        <v>0.00401299445824573</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.7404580152671774</v>
+        <v>-27.89473684210548</v>
       </c>
       <c r="M49" t="n">
-        <v>-4.1713298</v>
+        <v>-3.9300132</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.7098914354644149</v>
+        <v>1.122693997071742</v>
       </c>
       <c r="B50" t="n">
-        <v>0.682233502538071</v>
+        <v>0.5565557729941292</v>
       </c>
       <c r="C50" t="n">
-        <v>0.004928664072632977</v>
+        <v>0.01299764609558898</v>
       </c>
       <c r="D50" t="n">
-        <v>0.02459666754826766</v>
+        <v>0.04343242673413453</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1696600860917322</v>
+        <v>0.2530652280529672</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0303744435716156</v>
+        <v>0.05182421227197356</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9854443309499492</v>
+        <v>0.9612557122988278</v>
       </c>
       <c r="H50" t="n">
-        <v>0.4829341881953611</v>
+        <v>0.4625918985152083</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0428</v>
+        <v>-0.002400000000000013</v>
       </c>
       <c r="J50" t="n">
-        <v>1.014398848092153</v>
+        <v>1.013698630136986</v>
       </c>
       <c r="K50" t="n">
-        <v>0.002106069308826326</v>
+        <v>0.006802721088435338</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.7931034482758621</v>
+        <v>-20.47727272727279</v>
       </c>
       <c r="M50" t="n">
-        <v>-3.9300132</v>
+        <v>-3.15780008</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.122693997071742</v>
+        <v>0.7807332854061826</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5565557729941292</v>
+        <v>0.766728624535316</v>
       </c>
       <c r="C51" t="n">
-        <v>0.01299764609558898</v>
+        <v>-0.005363460002282177</v>
       </c>
       <c r="D51" t="n">
-        <v>0.04343242673413453</v>
+        <v>0.01822429906542056</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2530652280529672</v>
+        <v>0.1218558582040923</v>
       </c>
       <c r="F51" t="n">
-        <v>0.05182421227197356</v>
+        <v>0.02107346606124113</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9612557122988278</v>
+        <v>1.005218969820739</v>
       </c>
       <c r="H51" t="n">
-        <v>0.4625918985152083</v>
+        <v>0.5144827586206897</v>
       </c>
       <c r="I51" t="n">
-        <v>0.01820000000000001</v>
+        <v>-0.008500000000000008</v>
       </c>
       <c r="J51" t="n">
-        <v>0.7827272727272727</v>
+        <v>1.00062893081761</v>
       </c>
       <c r="K51" t="n">
-        <v>0.003321033210332044</v>
+        <v>0.0003143665513988965</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.6116504854368923</v>
+        <v>-77.00000000000833</v>
       </c>
       <c r="M51" t="n">
-        <v>-3.15780008</v>
+        <v>-5.9984412</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.7807332854061826</v>
+        <v>1.106014712245781</v>
       </c>
       <c r="B52" t="n">
-        <v>0.766728624535316</v>
+        <v>0.5475680636280207</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.005363460002282177</v>
+        <v>0.008754863813229508</v>
       </c>
       <c r="D52" t="n">
-        <v>0.01822429906542056</v>
+        <v>0.04151322397053899</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1218558582040923</v>
+        <v>0.2604588394062078</v>
       </c>
       <c r="F52" t="n">
-        <v>0.02107346606124113</v>
+        <v>0.05782424044429923</v>
       </c>
       <c r="G52" t="n">
-        <v>1.005218969820739</v>
+        <v>0.9621756798999688</v>
       </c>
       <c r="H52" t="n">
-        <v>0.5144827586206897</v>
+        <v>0.4787379972565158</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1029</v>
+        <v>-0.001899999999999999</v>
       </c>
       <c r="J52" t="n">
-        <v>1.375637104994903</v>
+        <v>1.014492753623188</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>0.007194244604316554</v>
       </c>
       <c r="L52" t="n">
-        <v>-1.124999999999998</v>
+        <v>-20.62962962962957</v>
       </c>
       <c r="M52" t="n">
-        <v>-5.9984412</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>1.106014712245781</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.5475680636280207</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.008754863813229508</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.04151322397053899</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.2604588394062078</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.05782424044429923</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.9621756798999688</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.4787379972565158</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.7950819672131147</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.003466204506065878</v>
-      </c>
-      <c r="L53" t="n">
-        <v>-0.5070422535211255</v>
-      </c>
-      <c r="M53" t="n">
         <v>-0.2757904</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>0.3935418768920282</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.7971743758467195</v>
-      </c>
-      <c r="C54" t="n">
-        <v>-0.0008715018882541025</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.01375515818431913</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.1061871119674588</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.01740320688306613</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.9961538461538462</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.5481569560047561</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.1207</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1.359925093632959</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.0001254547735541199</v>
-      </c>
-      <c r="L54" t="n">
-        <v>-1.191489361702126</v>
-      </c>
-      <c r="M54" t="n">
-        <v>-6.89476</v>
       </c>
     </row>
   </sheetData>
